--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_04_beg.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_04_beg.xlsx
@@ -1884,7 +1884,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  상당히 정교한 아츠…… 괜히 라이타니엔의 사관장이 아니군요.
+    <t xml:space="preserve">[name="폴리닉"]  상당히 정교한 아츠…… 괜히 라이타니아의 사관장이 아니군요.
 </t>
   </si>
   <si>
@@ -2004,7 +2004,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="세버린"]  이 정도의 파괴력은 민간에서는 당연히 불법이지만, 고등 교육을 받은 라이타니엔 사람 정도라면 이 코어를 구동할 수 있지.
+    <t xml:space="preserve">[name="세버린"]  이 정도의 파괴력은 민간에서는 당연히 불법이지만, 고등 교육을 받은 라이타니아 사람 정도라면 이 코어를 구동할 수 있지.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_04_beg.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_04_beg.xlsx
@@ -1132,7 +1132,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  I am after all a professional Catastrophe Messenger bodyguard. And this is the “wunderkind” who nearly got herself killed shooting videos deep in the Winterwisp Mountains.
+    <t xml:space="preserve">[name="Ayerscarpe"]  I am after all a professional Catastrophe Messenger bodyguard. And this is the 'wunderkind' who nearly got herself killed shooting videos deep in the Winterwisp Mountains.
 </t>
   </si>
   <si>
@@ -1304,7 +1304,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Should I have added “murder” as “old business” or “new business?”
+    <t xml:space="preserve">[name="Severin"]  Should I have added 'murder' as 'old business' or 'new business?'
 </t>
   </si>
   <si>
@@ -1316,11 +1316,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  And, according to a particular Infected resident, they are also hunting this “murderer.”
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  Maybe the killer is one of those Infected. Like when a thief cries out “thief!” Oldest trick in the book.
+    <t xml:space="preserve">[name="Folinic"]  And, according to a particular Infected resident, they are also hunting this 'murderer.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  Maybe the killer is one of those Infected. Like when a thief cries out 'thief!' Oldest trick in the book.
 </t>
   </si>
   <si>
@@ -1480,7 +1480,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  The Arts core of the L-44 "Gramophone" autonomous defense device. To put it bluntly, this is your murder weapon.
+    <t xml:space="preserve">[name="Severin"]  The Arts core of the L-44 'Gramophone' autonomous defense device. To put it bluntly, this is your murder weapon.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_04_beg.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_04_beg.xlsx
@@ -1076,11 +1076,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Click"]  It’s... awful...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  A fire. It’s already been dealt with. And some time has passed. But...
+    <t xml:space="preserve">[name="Click"]  It's... awful...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ayerscarpe"]  A fire. It's already been dealt with. And some time has passed. But...
 </t>
   </si>
   <si>
@@ -1088,11 +1088,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Click"]  There’s an outline in the ash. Looks like there was something rectangular sitting on the box?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="GreyThroat"]  Maybe Atro’s ID badge. She didn’t like to wear it.
+    <t xml:space="preserve">[name="Click"]  There's an outline in the ash. Looks like there was something rectangular sitting on the box?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="GreyThroat"]  Maybe Atro's ID badge. She didn't like to wear it.
 </t>
   </si>
   <si>
@@ -1104,11 +1104,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Click"]  Since you and Ayers rescued me from the mountain, I’m more than glad to help!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  Don’t call me Ayers... *Sigh*. What has Leonhardt been telling you...?
+    <t xml:space="preserve">[name="Click"]  Since you and Ayers rescued me from the mountain, I'm more than glad to help!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ayerscarpe"]  Don't call me Ayers... *Sigh*. What has Leonhardt been telling you...?
 </t>
   </si>
   <si>
@@ -1116,7 +1116,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  Things wouldn’t have gotten so bad if Leonhardt or Earthspirit was there...
+    <t xml:space="preserve">[name="Ayerscarpe"]  Things wouldn't have gotten so bad if Leonhardt or Earthspirit was there...
 </t>
   </si>
   <si>
@@ -1140,7 +1140,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ayerscarpe"]  Just kidding. But... GreyThroat wouldn’t want us to storm the town and kick in the doors of the mayor’s office, would she?
+    <t xml:space="preserve">[name="Ayerscarpe"]  Just kidding. But... GreyThroat wouldn't want us to storm the town and kick in the doors of the mayor's office, would she?
 </t>
   </si>
   <si>
@@ -1148,7 +1148,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="GreyThroat"]  I’ll be right back.
+    <t xml:space="preserve">[name="GreyThroat"]  I'll be right back.
 </t>
   </si>
   <si>
@@ -1160,23 +1160,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  I know what you’re going to say. A town the size of Wolumonde should be self-sufficient.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  The day the Great Rift happened, there wasn’t so much Originium breaking through the ground, carving the land up, ruining farms and granaries.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Councilor"]  We’ve been very lucky, in fact. There haven’t been any explosions in the town center or any of the very populated areas. But even so, the losses have been severe...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  That, on top of an inopportune season. We’re well into autumn and we’re on a course for the Winterwisp Mountains. Winter’s coming early this year.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Councilor"]  We haven’t announced it to the public yet, as to not cause a panic.
+    <t xml:space="preserve">[name="Severin"]  I know what you're going to say. A town the size of Wolumonde should be self-sufficient.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  The day the Great Rift happened, there wasn't so much Originium breaking through the ground, carving the land up, ruining farms and granaries.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Councilor"]  We've been very lucky, in fact. There haven't been any explosions in the town center or any of the very populated areas. But even so, the losses have been severe...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  That, on top of an inopportune season. We're well into autumn and we're on a course for the Winterwisp Mountains. Winter's coming early this year.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Councilor"]  We haven't announced it to the public yet, as to not cause a panic.
 </t>
   </si>
   <si>
@@ -1192,23 +1192,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Each district should have its own auxiliary hauling equipment. What’s the situation?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Councilor"]  Too slow. At best an eighth the speed of the other towns. We wouldn’t get out of the mountains before winter.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  We can’t let anything happen to the granary. Send more men.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Councilor"]  Men...? Even if we’re talking old folks and children, anyone who’s willing to carry a weapon is already...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Councilor"]  But they wouldn’t go so far as to attack the granary. That’s tantamount to killing every last person in Wolumonde!
+    <t xml:space="preserve">[name="Severin"]  Each district should have its own auxiliary hauling equipment. What's the situation?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Councilor"]  Too slow. At best an eighth the speed of the other towns. We wouldn't get out of the mountains before winter.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  We can't let anything happen to the granary. Send more men.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Councilor"]  Men...? Even if we're talking old folks and children, anyone who's willing to carry a weapon is already...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Councilor"]  But they wouldn't go so far as to attack the granary. That's tantamount to killing every last person in Wolumonde!
 </t>
   </si>
   <si>
@@ -1232,7 +1232,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  No, it doesn’t matter if you believe me or not. Would they believe me?
+    <t xml:space="preserve">[name="Severin"]  No, it doesn't matter if you believe me or not. Would they believe me?
 </t>
   </si>
   <si>
@@ -1248,7 +1248,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  I wouldn’t mind a little open honesty if they really just wanted to take a look. But not everyone’s going to let it end there.
+    <t xml:space="preserve">[name="Severin"]  I wouldn't mind a little open honesty if they really just wanted to take a look. But not everyone's going to let it end there.
 </t>
   </si>
   <si>
@@ -1256,11 +1256,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  They stirred the people up into a frenzy, they looted. They’re just thinking of themselves, making sure they can survive, whether or not it means someone else has to starve. To put it bluntly, they want an excuse to steal.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  I believe Rhodes Island has the expertise of dealing with the Infected, like you say. Dr. Atro’s professionalism and your combat skills proved that much.
+    <t xml:space="preserve">[name="Severin"]  They stirred the people up into a frenzy, they looted. They're just thinking of themselves, making sure they can survive, whether or not it means someone else has to starve. To put it bluntly, they want an excuse to steal.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  I believe Rhodes Island has the expertise of dealing with the Infected, like you say. Dr. Atro's professionalism and your combat skills proved that much.
 </t>
   </si>
   <si>
@@ -1300,7 +1300,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  I guess this isn’t a topic you can put on the agenda?
+    <t xml:space="preserve">[name="Folinic"]  I guess this isn't a topic you can put on the agenda?
 </t>
   </si>
   <si>
@@ -1308,7 +1308,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  It’s all a consequence of your coverup. No, no need for formalities. I’m disgusted with you.
+    <t xml:space="preserve">[name="Folinic"]  It's all a consequence of your coverup. No, no need for formalities. I'm disgusted with you.
 </t>
   </si>
   <si>
@@ -1328,11 +1328,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  But before we discuss the murderer, I’d like—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  Stop. You don’t have to say it.
+    <t xml:space="preserve">[name="Folinic"]  But before we discuss the murderer, I'd like—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  Stop. You don't have to say it.
 </t>
   </si>
   <si>
@@ -1340,7 +1340,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  But Wolumonde needs Rhodes Island’s help to get out of this mess. And there’s no point in making things hard for you anymore.
+    <t xml:space="preserve">[name="Severin"]  But Wolumonde needs Rhodes Island's help to get out of this mess. And there's no point in making things hard for you anymore.
 </t>
   </si>
   <si>
@@ -1352,11 +1352,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Sorry about the... hasty handling. But they’re mostly Infected. We had to put them somewhere underground to keep the others from panicking.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  ...It’s cold.
+    <t xml:space="preserve">[name="Severin"]  Sorry about the... hasty handling. But they're mostly Infected. We had to put them somewhere underground to keep the others from panicking.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  ...It's cold.
 </t>
   </si>
   <si>
@@ -1384,11 +1384,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  It’s true.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  Because I wasn’t there...
+    <t xml:space="preserve">[name="Severin"]  It's true.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  Because I wasn't there...
 </t>
   </si>
   <si>
@@ -1412,7 +1412,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  As strong as she is, I forgot she’s just another girl trying her hardest to move on. Same age as Tatjana too.
+    <t xml:space="preserve">[name="Severin"]  As strong as she is, I forgot she's just another girl trying her hardest to move on. Same age as Tatjana too.
 </t>
   </si>
   <si>
@@ -1436,11 +1436,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  Are… are you…?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  You got it, little fox. You’re sharper than I expected.
+    <t xml:space="preserve">[name="Suzuran"]  Are... are you...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  You got it, little fox. You're sharper than I expected.
 </t>
   </si>
   <si>
@@ -1464,15 +1464,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  You lost a good friend and you’re still keeping your calm. What could I possibly mock you about?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  ...Things aren’t over yet.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  You’re right, it isn’t. Now, I hope we can work together.
+    <t xml:space="preserve">[name="Severin"]  You lost a good friend and you're still keeping your calm. What could I possibly mock you about?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  ...Things aren't over yet.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  You're right, it isn't. Now, I hope we can work together.
 </t>
   </si>
   <si>
@@ -1484,11 +1484,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Of course, civilians aren’t allowed to possess destructive power like this. But any educated Leithanien would know how to drive this core.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  Overloading, heating, and igniting are all features of our town’s defensive equipment. Originium Arts engineering is complex. Not everyone can use it.
+    <t xml:space="preserve">[name="Severin"]  Of course, civilians aren't allowed to possess destructive power like this. But any educated Leithanien would know how to drive this core.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  Overloading, heating, and igniting are all features of our town's defensive equipment. Originium Arts engineering is complex. Not everyone can use it.
 </t>
   </si>
   <si>
@@ -1508,7 +1508,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  And then... I’ll make them pay.
+    <t xml:space="preserve">[name="Folinic"]  And then... I'll make them pay.
 </t>
   </si>
   <si>
@@ -1516,7 +1516,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  Miss Folinic... we shouldn’t...
+    <t xml:space="preserve">[name="Suzuran"]  Miss Folinic... we shouldn't...
 </t>
   </si>
   <si>
@@ -1524,7 +1524,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Of course I know. As a Rhodes Island Operator, as Dr. Kal'tsit’s student, I should know better than anyone.
+    <t xml:space="preserve">[name="Folinic"]  Of course I know. As a Rhodes Island Operator, as Dr. Kal'tsit's student, I should know better than anyone.
 </t>
   </si>
   <si>
@@ -1568,15 +1568,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  But this time... the councilors weren’t even able to calm them down. They’re demanding a declaration of war against the armed Infected.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  People must be starting to understand what it means to have our town’s movement basically crippled... They can’t hold it in any longer.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  But there’s more... Many of the residents who were working with the Infected were themselves uninfected. They...
+    <t xml:space="preserve">[name="Tatjana"]  But this time... the councilors weren't even able to calm them down. They're demanding a declaration of war against the armed Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  People must be starting to understand what it means to have our town's movement basically crippled... They can't hold it in any longer.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  But there's more... Many of the residents who were working with the Infected were themselves uninfected. They...
 </t>
   </si>
   <si>
@@ -1588,7 +1588,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  The Winterwisps. Those damned savages. They’re back to haunt Wolumonde again.
+    <t xml:space="preserve">[name="Severin"]  The Winterwisps. Those damned savages. They're back to haunt Wolumonde again.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_04_beg.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_04_beg.xlsx
@@ -1884,7 +1884,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  상당히 정교한 아츠…… 괜히 라이타니아의 사관장이 아니군요.
+    <t xml:space="preserve">[name="폴리닉"]  상당히 정교한 아츠…… 괜히 라이타니엔의 사관장이 아니군요.
 </t>
   </si>
   <si>
@@ -2004,7 +2004,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="세버린"]  이 정도의 파괴력은 민간에서는 당연히 불법이지만, 고등 교육을 받은 라이타니아 사람 정도라면 이 코어를 구동할 수 있지.
+    <t xml:space="preserve">[name="세버린"]  이 정도의 파괴력은 민간에서는 당연히 불법이지만, 고등 교육을 받은 라이타니엔 사람 정도라면 이 코어를 구동할 수 있지.
 </t>
   </si>
   <si>
